--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41327.82779587949</v>
+        <v>-41327.82779587946</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-106344.9472172501</v>
+        <v>-106344.94721725</v>
       </c>
       <c r="F6" t="n">
         <v>26755.05278274998</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41327.82779587946</v>
+        <v>-27601.46965846129</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-106344.94721725</v>
+        <v>-106344.9472172501</v>
       </c>
       <c r="F6" t="n">
         <v>26755.05278274998</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27601.46965846129</v>
+        <v>-185353.765261844</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13253290.54256177</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>27528923.16678751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1273546.644650898</v>
+        <v>1371681.241963002</v>
       </c>
     </row>
     <row r="11">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -24016,7 +24016,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24727,7 +24727,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24806,7 +24806,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -25177,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -25672,10 +25672,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25827,7 +25827,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>126.4887893424616</v>
@@ -25888,10 +25888,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>130.6648563030561</v>
@@ -25906,10 +25906,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>173.7492132756177</v>
@@ -26064,7 +26064,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>126.4887893424616</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>146772.213624165</v>
+        <v>149555.8236510573</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>146772.213624165</v>
+        <v>156057.2865880188</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>146772.213624165</v>
+        <v>159483.2474580187</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>146772.213624165</v>
+        <v>164365.5085698896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>146772.213624165</v>
+        <v>181633.0105144396</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146772.213624165</v>
+        <v>228206.8721501626</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30366.6648877583</v>
+        <v>30837.13418807811</v>
       </c>
       <c r="F2" t="n">
         <v>30366.6648877583</v>
@@ -26331,7 +26331,7 @@
         <v>30366.6648877583</v>
       </c>
       <c r="H2" t="n">
-        <v>30366.6648877583</v>
+        <v>31935.97299432512</v>
       </c>
       <c r="I2" t="n">
         <v>30366.6648877583</v>
@@ -26340,22 +26340,22 @@
         <v>30366.6648877583</v>
       </c>
       <c r="K2" t="n">
-        <v>30366.6648877583</v>
+        <v>32515.00863432512</v>
       </c>
       <c r="L2" t="n">
         <v>30366.6648877583</v>
       </c>
       <c r="M2" t="n">
-        <v>30366.6648877583</v>
+        <v>33340.1795264723</v>
       </c>
       <c r="N2" t="n">
         <v>30366.6648877583</v>
       </c>
       <c r="O2" t="n">
-        <v>30366.6648877583</v>
+        <v>36258.63055935398</v>
       </c>
       <c r="P2" t="n">
-        <v>30366.6648877583</v>
+        <v>44130.2691456734</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>509.6750753464614</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1700.083782114056</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -26444,22 +26444,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2327.372392114056</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3221.307525273502</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6382.962810895327</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14910.57127940802</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-106344.9472172501</v>
+        <v>-124340.436056544</v>
       </c>
       <c r="F6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="G6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="H6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.56394345608</v>
       </c>
       <c r="I6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="J6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="K6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="L6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="M6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="N6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456084</v>
       </c>
       <c r="O6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.56394345608</v>
       </c>
       <c r="P6" t="n">
-        <v>26755.05278274998</v>
+        <v>8759.563943456087</v>
       </c>
     </row>
   </sheetData>
